--- a/sprawka/pea_badania.xlsx
+++ b/sprawka/pea_badania.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student241279\OneDrive\programs\PEA_projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student241279\OneDrive\programs\PEA_projekt\sprawka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{73F64039-E6EC-49E8-8350-A7F771FBAC85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D1B4393D-EBB3-4A09-892D-30424749A420}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{73F64039-E6EC-49E8-8350-A7F771FBAC85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{1B25AD45-0221-497F-A210-BBF8C20F77F7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4525463D-6F2C-488B-9C64-8E0159AC09E2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4525463D-6F2C-488B-9C64-8E0159AC09E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>BRUTE FORCE, SMALL</t>
   </si>
@@ -50,6 +50,27 @@
   <si>
     <t>czas średni:</t>
   </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wynik</t>
+  </si>
+  <si>
+    <t>błąd [%]</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>SMALL (1000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>rozmiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">błąd średni: </t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +87,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,11 +116,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1273,6 +1311,79 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tabu Search</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$38:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.192500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.458400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.455300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.264199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.099299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.442699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.9803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBEF-4ADE-BAAB-FD39D721CA76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1519,8 +1630,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.61106466660553971"/>
           <c:y val="0.26129910217764041"/>
-          <c:w val="0.23533341080440304"/>
-          <c:h val="0.11704486217270337"/>
+          <c:w val="0.2340849019825246"/>
+          <c:h val="0.17280836779733313"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3661,10 +3772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4FDCEF-812F-4253-9EB5-9B7E0B00CDFC}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,6 +4021,200 @@
         <v>34.458100000000002</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>212</v>
+      </c>
+      <c r="C38" s="5">
+        <v>343</v>
+      </c>
+      <c r="D38" s="6">
+        <f>((C38-B38)*100)/B38</f>
+        <v>61.79245283018868</v>
+      </c>
+      <c r="E38" s="6">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5">
+        <v>202</v>
+      </c>
+      <c r="C39" s="5">
+        <v>234</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" ref="D39:D46" si="0">((C39-B39)*100)/B39</f>
+        <v>15.841584158415841</v>
+      </c>
+      <c r="E39" s="6">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5">
+        <v>264</v>
+      </c>
+      <c r="C40" s="5">
+        <v>264</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>13.192500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5">
+        <v>269</v>
+      </c>
+      <c r="C41" s="5">
+        <v>269</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>16.458400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5">
+        <v>125</v>
+      </c>
+      <c r="C42" s="5">
+        <v>381</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>204.8</v>
+      </c>
+      <c r="E42" s="6">
+        <v>17.455300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5">
+        <v>291</v>
+      </c>
+      <c r="C43" s="5">
+        <v>457</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>57.044673539518904</v>
+      </c>
+      <c r="E43" s="6">
+        <v>30.264199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5">
+        <v>156</v>
+      </c>
+      <c r="C44" s="5">
+        <v>378</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>142.30769230769232</v>
+      </c>
+      <c r="E44" s="6">
+        <v>40.099299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>17</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2085</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2399</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="0"/>
+        <v>15.059952038369305</v>
+      </c>
+      <c r="E45" s="6">
+        <v>29.442699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>18</v>
+      </c>
+      <c r="B46" s="5">
+        <v>187</v>
+      </c>
+      <c r="C46" s="5">
+        <v>441</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="0"/>
+        <v>135.82887700534761</v>
+      </c>
+      <c r="E46" s="6">
+        <v>33.9803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6">
+        <f>SUM(D38:D46)/9</f>
+        <v>70.297247986614749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
